--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Salgueir\Desktop\Codes\orçamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF63F0A1-0DFD-4E31-97AF-38101BE22363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFD83A-FB8D-4E56-8010-E56D182337B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9135" yWindow="3915" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -118,19 +118,14 @@
       <t>Valor final</t>
     </r>
   </si>
-  <si>
-    <t>peça</t>
-  </si>
-  <si>
-    <t>Camiseta</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -425,49 +420,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -477,89 +508,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +880,7 @@
   <dimension ref="A1:G978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -866,303 +894,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="29">
         <v>45321</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="21"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="26">
-        <v>25</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="4">
-        <v>50</v>
-      </c>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="42">
-        <v>25</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="6">
-        <v>50</v>
-      </c>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="42">
-        <v>25</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="6">
-        <v>50</v>
-      </c>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33">
-        <v>25</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="8">
-        <v>50</v>
-      </c>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="10"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="15" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="55">
         <f>SUM(G10:G16)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2">
         <f>G17</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="10.5" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2">
         <f>G19</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
@@ -2120,6 +2108,26 @@
     <row r="978" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C8:D8"/>
@@ -2136,26 +2144,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Salgueir\Desktop\Codes\orçamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Salgueir\Documents\GitHub\Budget-Manager-PY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFD83A-FB8D-4E56-8010-E56D182337B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A4C0FD-AE61-444B-8FD4-FE13D483FAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="3915" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -118,6 +118,27 @@
       <t>Valor final</t>
     </r>
   </si>
+  <si>
+    <t>UNIDADE</t>
+  </si>
+  <si>
+    <t>QUANTIDADE</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>VALOR UNITARIO</t>
+  </si>
+  <si>
+    <t>VALOR TOTAL</t>
+  </si>
+  <si>
+    <t>arroz</t>
+  </si>
+  <si>
+    <t>feijão</t>
+  </si>
 </sst>
 </file>
 
@@ -125,9 +146,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -193,24 +214,28 @@
       <name val="Arial MT"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -227,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -375,63 +400,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -445,17 +441,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -493,8 +489,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -510,84 +512,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,282 +801,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G978"/>
+  <dimension ref="A1:G976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="35">
         <v>45321</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
+        <v>45</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7">
+        <v>135</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="7">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="A15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2">
+        <f>SUM(G8:G14)</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-    </row>
-    <row r="17" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="55">
-        <f>SUM(G10:G16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="3">
+        <f>G15</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" ht="10.5" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="3">
         <f>G17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="10.5" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="2">
-        <f>G19</f>
-        <v>0</v>
-      </c>
-    </row>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
@@ -2104,46 +2042,40 @@
     <row r="974" ht="15.75" customHeight="1"/>
     <row r="975" ht="15.75" customHeight="1"/>
     <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="32">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Salgueir\Documents\GitHub\Budget-Manager-PY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A4C0FD-AE61-444B-8FD4-FE13D483FAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB850F0-0CF9-4598-8C33-59B4F29E663C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -429,89 +429,89 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,7 +818,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A1" s="31"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -827,33 +827,33 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="19">
         <v>45321</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="23"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -862,7 +862,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
@@ -873,7 +873,7 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -888,14 +888,14 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
@@ -907,14 +907,14 @@
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14">
+      <c r="D8" s="21"/>
+      <c r="E8" s="22">
         <v>45</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="7">
         <v>135</v>
       </c>
@@ -926,14 +926,14 @@
       <c r="B9" s="4">
         <v>23</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="D9" s="21"/>
+      <c r="E9" s="22">
         <v>4</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="7">
         <v>92</v>
       </c>
@@ -941,50 +941,50 @@
     <row r="10" spans="1:7" ht="11.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="11.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="11.25" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="11.25" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="9"/>
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A16" s="8"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1007,7 +1007,7 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="9"/>
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
@@ -1032,27 +1032,27 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="10.5" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="9"/>
@@ -1063,7 +1063,7 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="9"/>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="9"/>
@@ -2044,11 +2044,24 @@
     <row r="976" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -2058,24 +2071,11 @@
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Salgueir\Documents\GitHub\Budget-Manager-PY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilha\Documents\GitHub\Budget-Manager-PY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB850F0-0CF9-4598-8C33-59B4F29E663C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34129A5B-000B-4B35-A073-D04DAC29B0A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,15 +429,78 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -447,71 +510,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,7 +818,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A1" s="8"/>
+      <c r="A1" s="31"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -827,33 +827,33 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="35">
         <v>45321</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="18"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -862,7 +862,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
@@ -873,7 +873,7 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -888,14 +888,14 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
@@ -907,14 +907,14 @@
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
         <v>45</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="7">
         <v>135</v>
       </c>
@@ -926,14 +926,14 @@
       <c r="B9" s="4">
         <v>23</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
         <v>4</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="7">
         <v>92</v>
       </c>
@@ -941,50 +941,50 @@
     <row r="10" spans="1:7" ht="11.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="11.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="11.25" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="11.25" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="9"/>
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1007,7 +1007,7 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="9"/>
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
@@ -1032,27 +1032,27 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" ht="10.5" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="9"/>
@@ -1063,7 +1063,7 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="9"/>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="9"/>
@@ -2044,24 +2044,11 @@
     <row r="976" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G3"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -2071,11 +2058,24 @@
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
